--- a/Docs/LED灯墙预算表.xlsx
+++ b/Docs/LED灯墙预算表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickeyzzq/GitProjects/LightWall/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D15E55-A49B-C74A-9314-060F6D89C325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04C438E-2E04-7D4C-8130-4705BE8289C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1560" windowWidth="28240" windowHeight="17440" activeTab="2" xr2:uid="{4617DE87-61C7-174F-8E53-939CB47B008B}"/>
+    <workbookView xWindow="2680" yWindow="1560" windowWidth="28240" windowHeight="17440" activeTab="1" xr2:uid="{4617DE87-61C7-174F-8E53-939CB47B008B}"/>
   </bookViews>
   <sheets>
     <sheet name="预算" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="78">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -342,6 +342,10 @@
   </si>
   <si>
     <t>航空手头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总功率 &gt;600W</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -517,45 +521,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -574,6 +539,60 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -589,12 +608,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -602,15 +615,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1367,101 +1371,101 @@
         <f>SUM(H4:H14)</f>
         <v>9025</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="11"/>
+      <c r="J15" s="20"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" ht="27" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="2">
         <v>6000</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="13"/>
+      <c r="J16" s="22"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="27" customHeight="1">
       <c r="A17" s="5"/>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="3">
         <f>H15-H16</f>
         <v>3025</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="J17" s="13"/>
+      <c r="J17" s="22"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="6" customHeight="1">
       <c r="A18" s="5"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="19"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="28"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12" ht="27" customHeight="1">
       <c r="A19" s="5"/>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="12" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="13"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="22"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" ht="27" customHeight="1">
       <c r="A20" s="5"/>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="12" t="s">
+      <c r="C20" s="24"/>
+      <c r="D20" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="13"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="22"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
@@ -1529,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE18006D-005D-2748-8F78-723F61E0DFC9}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1544,581 +1548,581 @@
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-    </row>
-    <row r="2" spans="1:12" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-    </row>
-    <row r="3" spans="1:12" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-    </row>
-    <row r="4" spans="1:12" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26" t="s">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-    </row>
-    <row r="5" spans="1:12" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="27">
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="14">
         <v>1</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="14">
         <v>8</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="15">
         <v>96</v>
       </c>
-      <c r="H5" s="29">
-        <f t="shared" ref="H5:H15" si="0">F5*G5</f>
+      <c r="H5" s="16">
+        <f t="shared" ref="H5:H14" si="0">F5*G5</f>
         <v>768</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-    </row>
-    <row r="6" spans="1:12" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="27">
+      <c r="J5" s="14"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="14">
         <v>2</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="14">
         <v>61</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="15">
         <v>28</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="16">
         <f t="shared" si="0"/>
         <v>1708</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-    </row>
-    <row r="7" spans="1:12" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="27">
+      <c r="J6" s="14"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="14">
         <v>3</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="14">
         <v>100</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="15">
         <v>1.2</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="16">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-    </row>
-    <row r="8" spans="1:12" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="27">
+      <c r="J7" s="14"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="14">
         <v>4</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="14">
         <v>20</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="15">
         <v>0.95</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-    </row>
-    <row r="9" spans="1:12" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="27">
+      <c r="J8" s="14"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="14">
         <v>5</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="27">
-        <v>2</v>
-      </c>
-      <c r="G9" s="28">
+      <c r="F9" s="14">
+        <v>4</v>
+      </c>
+      <c r="G9" s="15">
         <v>120</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="16">
         <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-    </row>
-    <row r="10" spans="1:12" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="27">
+        <v>480</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="14">
         <v>6</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="14">
         <v>1</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="15">
         <v>3200</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="16">
         <f t="shared" si="0"/>
         <v>3200</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-    </row>
-    <row r="11" spans="1:12" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="27">
+      <c r="J10" s="14"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="14">
         <v>7</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="14">
         <v>1</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="15">
         <v>20</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="16">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-    </row>
-    <row r="12" spans="1:12" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="27">
+      <c r="J11" s="14"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="14">
         <v>8</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="14">
         <v>3</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="15">
         <v>200</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="16">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-    </row>
-    <row r="13" spans="1:12" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="27">
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="14">
         <v>9</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="14">
         <v>2</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="15">
         <v>600</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="16">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="30" t="s">
+      <c r="J13" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-    </row>
-    <row r="14" spans="1:12" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="27">
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="14">
         <v>10</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="14">
         <v>1</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="15">
         <v>600</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="16">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="I14" s="27" t="s">
+      <c r="I14" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-    </row>
-    <row r="15" spans="1:12" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="27">
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="14">
         <v>11</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="14">
         <v>1</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="15">
         <v>1200</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="16">
         <v>1000</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="30" t="s">
+      <c r="J15" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-    </row>
-    <row r="16" spans="1:12" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A16" s="23"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="31" t="s">
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="16">
         <f>SUM(H5:H15)</f>
-        <v>9475</v>
-      </c>
-      <c r="I16" s="32" t="s">
+        <v>9715</v>
+      </c>
+      <c r="I16" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="33"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-    </row>
-    <row r="17" spans="1:12" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="34" t="s">
+      <c r="J16" s="38"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1">
+      <c r="A17" s="10"/>
+      <c r="B17" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="28">
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="15">
         <v>6000</v>
       </c>
-      <c r="I17" s="37" t="s">
+      <c r="I17" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-    </row>
-    <row r="18" spans="1:12" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A18" s="23"/>
-      <c r="B18" s="34" t="s">
+      <c r="J17" s="36"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1">
+      <c r="A18" s="10"/>
+      <c r="B18" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="29">
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="16">
         <f>H16-H17</f>
-        <v>3475</v>
-      </c>
-      <c r="I18" s="37" t="s">
+        <v>3715</v>
+      </c>
+      <c r="I18" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-    </row>
-    <row r="19" spans="1:12" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A19" s="23"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-    </row>
-    <row r="20" spans="1:12" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A20" s="23"/>
-      <c r="B20" s="42" t="s">
+      <c r="J18" s="36"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="37" t="s">
+      <c r="C20" s="33"/>
+      <c r="D20" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-    </row>
-    <row r="21" spans="1:12" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A21" s="23"/>
-      <c r="B21" s="42" t="s">
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="37" t="s">
+      <c r="C21" s="33"/>
+      <c r="D21" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-    </row>
-    <row r="22" spans="1:12" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-    </row>
-    <row r="23" spans="1:12" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-    </row>
-    <row r="24" spans="1:12" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+    </row>
+    <row r="22" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+    </row>
+    <row r="23" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2142,7 +2146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DAEA4A-3CAE-E44E-AE99-30B27AC8F571}">
   <dimension ref="B3:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
